--- a/Requirements Analysis/Use case specification/Labs00.xlsx
+++ b/Requirements Analysis/Use case specification/Labs00.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SoftwareDesignAndConstruction\TKXDPM.KSTN.20201-08\Requirements Analysis\Use case specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62115B4-5A5C-4331-BC12-1F3FCEE6F152}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB857184-2953-4DCB-824B-E05DFBD66127}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="597" activeTab="2" xr2:uid="{9E918315-6A42-422F-903B-03B968EF713D}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="11835" tabRatio="597" activeTab="3" xr2:uid="{9E918315-6A42-422F-903B-03B968EF713D}"/>
   </bookViews>
   <sheets>
-    <sheet name="viewBike" sheetId="1" r:id="rId1"/>
-    <sheet name="rentBike" sheetId="2" r:id="rId2"/>
-    <sheet name="returnBike" sheetId="4" r:id="rId3"/>
+    <sheet name="viewBikeInDock" sheetId="1" r:id="rId1"/>
+    <sheet name="viewBikeAfterRent" sheetId="6" state="hidden" r:id="rId2"/>
+    <sheet name="rentBike" sheetId="2" r:id="rId3"/>
+    <sheet name="returnBike" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="122">
   <si>
     <t>Luồng sự kiện chính</t>
   </si>
@@ -239,9 +240,6 @@
     </r>
   </si>
   <si>
-    <t>Chọn xem thông tin xe từ danh sách các xe trong bãi</t>
-  </si>
-  <si>
     <t>Hiển thị thông tin chi tiết xe</t>
   </si>
   <si>
@@ -338,9 +336,6 @@
     <t>Ấn gửi</t>
   </si>
   <si>
-    <t>Hiển thị thống báo yêu cầu người dùng xác nhận thuê xe</t>
-  </si>
-  <si>
     <t>Xác nhận thuê xe</t>
   </si>
   <si>
@@ -362,9 +357,6 @@
     <t>Trừ tiền cọc trong tài khoản người dùng</t>
   </si>
   <si>
-    <t>Lưu lại giao dịch, cập nhật trạng thái xe và thông báo thành công</t>
-  </si>
-  <si>
     <t>Người dùng hủy thuê xe</t>
   </si>
   <si>
@@ -387,10 +379,6 @@
   </si>
   <si>
     <t>1. Thông báo số dữ không đủ</t>
-  </si>
-  <si>
-    <t>Hậu điều kiện: Trạng thái của xe thay đổi thành đang được sử dụng, giao dịch đặt
-cọc được hoàn thành và lưu lại</t>
   </si>
   <si>
     <r>
@@ -515,15 +503,6 @@
     <t>Danh sách bãi xe</t>
   </si>
   <si>
-    <t>Số xe có sẵn</t>
-  </si>
-  <si>
-    <t>Diện tích</t>
-  </si>
-  <si>
-    <t>Số vị trí trống</t>
-  </si>
-  <si>
     <t>Khoảng cách</t>
   </si>
   <si>
@@ -533,14 +512,148 @@
     <t>Bãi xe Bách khoa</t>
   </si>
   <si>
-    <t>Đơn vị (m^2)</t>
-  </si>
-  <si>
     <t>Đơn vị (m)</t>
   </si>
   <si>
+    <t>Chỉ dành cho xe
+điện</t>
+  </si>
+  <si>
+    <t>Chọn một xe từ dánh sách các xe trong bãi</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Use case:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "Xem thông tin xe đang thuê"</t>
+    </r>
+  </si>
+  <si>
+    <t>Chọn xem thông tin xe đang thuê trên giao diện chính</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin xe đang thuê và giá tiền kèm theo</t>
+  </si>
+  <si>
+    <t>Thời gian thuê</t>
+  </si>
+  <si>
+    <t>Số tiền phải trả</t>
+  </si>
+  <si>
+    <t>Số thực</t>
+  </si>
+  <si>
+    <t>Hiển thị giao dịch thuê xe và thông báo thành công</t>
+  </si>
+  <si>
+    <t>Lưu lại giao dịch thuê xe, giao dịch trừ tiền,  cập nhật trạng thái xe, bãi xe</t>
+  </si>
+  <si>
+    <t>Thông tin giao dịch thuê xe</t>
+  </si>
+  <si>
+    <t>Lấy thông tin chi tiết của xe</t>
+  </si>
+  <si>
+    <t>Hiển thị thông tin xe và yêu cầu người dùng xác nhận</t>
+  </si>
+  <si>
+    <t>Kiểm tra mã vạch có hợp lệ</t>
+  </si>
+  <si>
+    <t>7:00 am, 20/11/2020</t>
+  </si>
+  <si>
+    <t>Là số nguyên dương</t>
+  </si>
+  <si>
+    <t>Số nguyên dương</t>
+  </si>
+  <si>
+    <t>Hiển thị giao dịch trả xe và thông báo thành công</t>
+  </si>
+  <si>
+    <t>Giá xe</t>
+  </si>
+  <si>
+    <t>Lấy thông tin thẻ của người dùng</t>
+  </si>
+  <si>
+    <t>Lấy thông tin người dùng và thẻ ngân hàng</t>
+  </si>
+  <si>
+    <t>Mã thuê xe</t>
+  </si>
+  <si>
+    <t>Mini</t>
+  </si>
+  <si>
+    <t>Datetime</t>
+  </si>
+  <si>
+    <t>Thời gian
+thuê</t>
+  </si>
+  <si>
+    <t>Thời gian trả</t>
+  </si>
+  <si>
+    <t>Sau khi trả xe</t>
+  </si>
+  <si>
+    <t>9:00 am, 20/11/2020</t>
+  </si>
+  <si>
+    <t>Chi phí thuê xe</t>
+  </si>
+  <si>
+    <t>Người thuê</t>
+  </si>
+  <si>
+    <t>Lê Thế Nam</t>
+  </si>
+  <si>
+    <t>Hậu điều kiện: Trạng thái của xe thay đổi thành đang được sử dụng, giao dịch trừ tiền và thuê xe được lưu lại, xe chuyển thành đang thuê và bãi xe được cập nhật</t>
+  </si>
+  <si>
+    <t>Lấy thông tin giao dịch thuê xe</t>
+  </si>
+  <si>
+    <t>Giá thuê 30 phú đầu</t>
+  </si>
+  <si>
+    <t>Giá thuê 15 phút sau 30 phút đầu</t>
+  </si>
+  <si>
+    <t>Cập nhật và lưu lại giao dịch thuê xe, giao dịch trừ tiền,
+cập nhật trạng thái xe, bãi xe</t>
+  </si>
+  <si>
     <t>Hậu điều kiện: Thay đổi trạng thái của xe thành không sử dụng, hoàn thành giao dịch thanh toán 
-và trả tiền cọc cho người dùng</t>
+và trả tiền cọc cho người dùng, cập nhật và lưu lại giao dịch thuê xe</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Luôn là NULL</t>
   </si>
 </sst>
 </file>
@@ -609,7 +722,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -632,11 +745,118 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -677,65 +897,164 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1055,7 +1374,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1074,54 +1393,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="s">
@@ -1130,12 +1449,12 @@
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="2">
@@ -1144,12 +1463,12 @@
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="C7" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="2">
@@ -1158,52 +1477,52 @@
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
+      <c r="C8" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="28" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
+      <c r="A12" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="11" t="s">
@@ -1218,151 +1537,161 @@
       <c r="D13" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="13"/>
+      <c r="F13" s="32"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="7">
         <v>1</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="12">
+        <v>29</v>
+      </c>
+      <c r="E14" s="33">
         <v>20173284442</v>
       </c>
-      <c r="F14" s="12"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="7">
         <v>2</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="12"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" customHeight="1">
       <c r="A16" s="7">
         <v>3</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="C16" s="7"/>
-      <c r="D16" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="16">
-        <v>400000</v>
-      </c>
-      <c r="F16" s="12"/>
+      <c r="D16" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="34">
+        <v>4000000</v>
+      </c>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="1:6" ht="30">
       <c r="A17" s="7">
         <v>4</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="16">
+      <c r="D17" s="35"/>
+      <c r="E17" s="34">
         <v>10000</v>
       </c>
-      <c r="F17" s="12"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="1:6" ht="45" customHeight="1">
       <c r="A18" s="7">
         <v>5</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="16">
+      <c r="D18" s="35"/>
+      <c r="E18" s="34">
         <v>3000</v>
       </c>
-      <c r="F18" s="12"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="1:6" ht="30">
       <c r="A19" s="7">
         <v>6</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="12">
+        <v>38</v>
+      </c>
+      <c r="E19" s="33">
         <v>60</v>
       </c>
-      <c r="F19" s="12"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="1:6" ht="30">
       <c r="A20" s="7">
         <v>7</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="14">
+      <c r="E20" s="36">
         <v>3.5</v>
       </c>
-      <c r="F20" s="14"/>
+      <c r="F20" s="36"/>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="7">
         <v>8</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F21" s="12"/>
+        <v>31</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A1:F1"/>
@@ -1376,16 +1705,6 @@
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1393,11 +1712,298 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD398524-161E-4778-AD6A-3ED7F5DE324A}">
-  <dimension ref="A1:F33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816646BA-32D3-4C70-AF96-91BADFEB7946}">
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="18">
+        <v>1</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="18">
+        <v>2</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="32"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="17">
+        <v>1</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="33"/>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" customHeight="1">
+      <c r="A15" s="17">
+        <v>2</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="34">
+        <v>400000</v>
+      </c>
+      <c r="F15" s="33"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="39">
+        <v>3</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="39"/>
+      <c r="D16" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="43">
+        <v>60000</v>
+      </c>
+      <c r="F16" s="44"/>
+    </row>
+    <row r="17" spans="1:6" ht="45" customHeight="1">
+      <c r="A17" s="40"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="46"/>
+    </row>
+    <row r="18" spans="1:6" ht="30">
+      <c r="A18" s="17">
+        <v>6</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="33">
+        <v>60</v>
+      </c>
+      <c r="F18" s="33"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="E16:F17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD398524-161E-4778-AD6A-3ED7F5DE324A}">
+  <dimension ref="A1:F52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1418,54 +2024,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="A3" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
@@ -1474,333 +2080,732 @@
       <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8">
         <v>1</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="C7" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8">
         <v>2</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
+      <c r="C8" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8">
         <v>3</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="C9" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8">
         <v>4</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="C10" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>5</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="49"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="24">
+        <v>6</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="8">
-        <v>6</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="7">
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+    </row>
+    <row r="13" spans="1:6" ht="30">
+      <c r="A13" s="24">
         <v>7</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:6" ht="30">
+      <c r="B13" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="7">
         <v>8</v>
       </c>
-      <c r="B14" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="B14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="10">
+      <c r="A15" s="17">
         <v>9</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="C15" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="10">
         <v>10</v>
       </c>
-      <c r="B16" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="49"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="10">
+      <c r="A17" s="24">
         <v>11</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
+      <c r="C17" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="49"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="10">
         <v>12</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
+      <c r="C18" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="6">
+      <c r="A19" s="10">
         <v>13</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
+      <c r="C19" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="10">
         <v>14</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="6">
+        <v>15</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="10">
+        <v>16</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="21">
+        <v>17</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>18</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="57"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="1:6" ht="30">
+      <c r="A27" s="8">
+        <v>1</v>
+      </c>
+      <c r="B27" s="10">
+        <v>10</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="15" t="s">
+      <c r="F27" s="50"/>
+    </row>
+    <row r="28" spans="1:6" ht="30">
+      <c r="A28" s="10">
+        <v>2</v>
+      </c>
+      <c r="B28" s="10">
+        <v>6</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="53">
+        <v>2</v>
+      </c>
+      <c r="F28" s="53"/>
+    </row>
+    <row r="29" spans="1:6" ht="30">
+      <c r="A29" s="10">
+        <v>3</v>
+      </c>
+      <c r="B29" s="10">
+        <v>15</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="50"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="60"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1">
+      <c r="A32" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="32"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" customHeight="1">
+      <c r="A34" s="12">
+        <v>1</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="33"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="12">
+        <v>2</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="34">
+        <v>400000</v>
+      </c>
+      <c r="F35" s="33"/>
+    </row>
+    <row r="36" spans="1:6" ht="30">
+      <c r="A36" s="12">
+        <v>3</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="34">
+        <v>10000</v>
+      </c>
+      <c r="F36" s="33"/>
+    </row>
+    <row r="37" spans="1:6" ht="60">
+      <c r="A37" s="12">
+        <v>4</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="34">
+        <v>3000</v>
+      </c>
+      <c r="F37" s="33"/>
+    </row>
+    <row r="38" spans="1:6" ht="45">
+      <c r="A38" s="12">
+        <v>5</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="33">
+        <v>60</v>
+      </c>
+      <c r="F38" s="33"/>
+    </row>
+    <row r="39" spans="1:6" ht="30">
+      <c r="A39" s="12">
+        <v>6</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="36">
+        <v>3.5</v>
+      </c>
+      <c r="F39" s="36"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="12">
         <v>7</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="9" t="s">
+      <c r="B40" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" s="33"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A41" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B42" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="32"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="17">
+        <v>1</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="33">
+        <v>1213124123</v>
+      </c>
+      <c r="F43" s="33"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="23">
+        <v>2</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C44" s="23"/>
+      <c r="D44" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="33">
+        <v>101012345</v>
+      </c>
+      <c r="F44" s="33"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="23">
+        <v>3</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="23"/>
+      <c r="D45" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="F45" s="33"/>
+    </row>
+    <row r="46" spans="1:6" ht="30">
+      <c r="A46" s="23">
+        <v>4</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="23"/>
+      <c r="D46" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="F46" s="33"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="23">
+        <v>5</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="F47" s="33"/>
+    </row>
+    <row r="48" spans="1:6" ht="30">
+      <c r="A48" s="23">
+        <v>6</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="23"/>
+      <c r="D48" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" s="34">
+        <v>100000</v>
+      </c>
+      <c r="F48" s="33"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="23">
+        <v>7</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="23"/>
+      <c r="D49" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="F49" s="34"/>
+    </row>
+    <row r="50" spans="1:6" ht="30">
+      <c r="A50" s="23">
         <v>8</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="B50" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" s="23"/>
+      <c r="D50" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" s="34">
+        <v>100000</v>
+      </c>
+      <c r="F50" s="34"/>
+    </row>
+    <row r="51" spans="1:6" ht="45">
+      <c r="A51" s="23">
         <v>9</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:6" ht="30">
-      <c r="A23" s="8">
-        <v>1</v>
-      </c>
-      <c r="B23" s="10">
-        <v>6</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="17"/>
-    </row>
-    <row r="24" spans="1:6" ht="30">
-      <c r="A24" s="10">
-        <v>2</v>
-      </c>
-      <c r="B24" s="10">
-        <v>9</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" s="18">
-        <v>2</v>
-      </c>
-      <c r="F24" s="18"/>
-    </row>
-    <row r="25" spans="1:6" ht="30">
-      <c r="A25" s="10">
-        <v>3</v>
-      </c>
-      <c r="B25" s="10">
-        <v>12</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="17"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-    </row>
-    <row r="28" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A28" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-    </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1"/>
-    <row r="33" ht="27.75" customHeight="1"/>
+      <c r="B51" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="23"/>
+      <c r="D51" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" s="34">
+        <v>20000</v>
+      </c>
+      <c r="F51" s="34"/>
+    </row>
+    <row r="52" spans="1:6" ht="30" customHeight="1">
+      <c r="A52" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" s="62"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="63"/>
+    </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="C20:F20"/>
+  <mergeCells count="52">
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C13:F13"/>
     <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="E43:F43"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
@@ -1811,27 +2816,21 @@
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B92BA79D-BD45-431B-810E-32D40CF25167}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F33:F34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1852,54 +2851,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="A1" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
+      <c r="A2" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="A3" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
+      <c r="A4" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
@@ -1908,376 +2907,558 @@
       <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="8">
         <v>1</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="C7" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="8">
         <v>2</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
+      <c r="C8" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="8">
         <v>3</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="C9" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="8">
         <v>4</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="C10" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="8">
         <v>5</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="24">
+        <v>6</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="24">
+        <v>7</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="24">
+        <v>8</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+    </row>
+    <row r="17" spans="1:6" ht="30" customHeight="1">
+      <c r="A17" s="10">
+        <v>11</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="14">
+        <v>12</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="1:6" ht="30">
+      <c r="A21" s="8">
+        <v>1</v>
+      </c>
+      <c r="B21" s="10">
+        <v>5</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="8">
-        <v>6</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="17" t="s">
+      <c r="D21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="50"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="7">
-        <v>7</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="7">
-        <v>8</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="10">
-        <v>9</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="9" t="s">
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:6" ht="30">
-      <c r="A18" s="8">
+      <c r="B25" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="32"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1">
+      <c r="A26" s="7">
         <v>1</v>
       </c>
-      <c r="B18" s="10">
-        <v>5</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="B26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1">
-      <c r="A23" s="7">
-        <v>1</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="25"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="7">
-        <v>2</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F24" s="25"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1">
-      <c r="A25" s="7">
-        <v>3</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="27">
-        <v>100</v>
-      </c>
-      <c r="F25" s="25"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="7">
-        <v>4</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="27">
-        <v>100</v>
-      </c>
-      <c r="F26" s="25"/>
+      <c r="F26" s="64"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="7">
+        <v>2</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" s="64"/>
+    </row>
+    <row r="28" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A28" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="32"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="23">
+        <v>1</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="33">
+        <v>1213124123</v>
+      </c>
+      <c r="F30" s="33"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="23">
+        <v>2</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="23"/>
+      <c r="D31" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="33">
+        <v>101012345</v>
+      </c>
+      <c r="F31" s="33"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="23">
+        <v>3</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="23"/>
+      <c r="D32" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="33"/>
+    </row>
+    <row r="33" spans="1:6" ht="30">
+      <c r="A33" s="23">
+        <v>4</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="23"/>
+      <c r="D33" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="33"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="23">
         <v>5</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="27">
-        <v>10</v>
-      </c>
-      <c r="F27" s="25"/>
-    </row>
-    <row r="28" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A28" s="7">
+      <c r="B34" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34" s="33"/>
+    </row>
+    <row r="35" spans="1:6" ht="30">
+      <c r="A35" s="23">
         <v>6</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="25">
+      <c r="B35" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="23"/>
+      <c r="D35" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="34">
+        <v>100000</v>
+      </c>
+      <c r="F35" s="33"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="23">
+        <v>7</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" s="34"/>
+    </row>
+    <row r="37" spans="1:6" ht="30">
+      <c r="A37" s="23">
+        <v>8</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" s="23"/>
+      <c r="D37" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="34">
+        <v>100000</v>
+      </c>
+      <c r="F37" s="34"/>
+    </row>
+    <row r="38" spans="1:6" ht="45">
+      <c r="A38" s="23">
+        <v>9</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="23"/>
+      <c r="D38" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="34">
+        <v>20000</v>
+      </c>
+      <c r="F38" s="34"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="7">
+        <v>6</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E39" s="64">
         <v>600</v>
       </c>
-      <c r="F28" s="25"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
+      <c r="F39" s="64"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="39">
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="A29:F30"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C18:F18"/>
     <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C14:F14"/>
     <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="A40:F41"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="E29:F29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
